--- a/PFF_HTRA1/110724_analysis_by_cell.xlsx
+++ b/PFF_HTRA1/110724_analysis_by_cell.xlsx
@@ -683,16 +683,16 @@
         <v>8522</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2509</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>553</v>
       </c>
       <c r="G10" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2108,10 +2108,10 @@
         <v>12855</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>2655</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2858,10 +2858,10 @@
         <v>3189</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>18</v>
@@ -2908,16 +2908,16 @@
         <v>10460</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>2790</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>244</v>
       </c>
       <c r="G99" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">

--- a/PFF_HTRA1/110724_analysis_by_cell.xlsx
+++ b/PFF_HTRA1/110724_analysis_by_cell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>File_Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cell_Size</t>
+          <t>Cell_Area</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -461,12 +461,27 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Average_Inclusion_Area</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>HTRA_Area</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Overlap_Area</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap_to_Inclusion_Area</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap_to_HTRA_Area</t>
         </is>
       </c>
     </row>
@@ -489,9 +504,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>94</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -514,9 +536,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>3409</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -539,10 +568,19 @@
         <v>1404</v>
       </c>
       <c r="F4" t="n">
+        <v>117</v>
+      </c>
+      <c r="G4" t="n">
         <v>2229</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>242</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1723646723646724</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1085688649618663</v>
       </c>
     </row>
     <row r="5">
@@ -564,9 +602,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>3377</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -589,10 +634,19 @@
         <v>1242</v>
       </c>
       <c r="F6" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="G6" t="n">
         <v>3104</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>224</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.180354267310789</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.07216494845360824</v>
       </c>
     </row>
     <row r="7">
@@ -614,9 +668,18 @@
         <v>407</v>
       </c>
       <c r="F7" t="n">
+        <v>135.6666666666667</v>
+      </c>
+      <c r="G7" t="n">
         <v>925</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -639,9 +702,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>977</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -664,10 +734,19 @@
         <v>2115</v>
       </c>
       <c r="F9" t="n">
+        <v>132.1875</v>
+      </c>
+      <c r="G9" t="n">
         <v>379</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.004728132387706856</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.02638522427440633</v>
       </c>
     </row>
     <row r="10">
@@ -689,9 +768,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>553</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -714,10 +800,19 @@
         <v>1033</v>
       </c>
       <c r="F11" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="G11" t="n">
         <v>121</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.00484027105517909</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04132231404958678</v>
       </c>
     </row>
     <row r="12">
@@ -739,10 +834,19 @@
         <v>661</v>
       </c>
       <c r="F12" t="n">
+        <v>60.09090909090909</v>
+      </c>
+      <c r="G12" t="n">
         <v>54</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.00302571860816944</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="13">
@@ -764,10 +868,19 @@
         <v>2472</v>
       </c>
       <c r="F13" t="n">
+        <v>412</v>
+      </c>
+      <c r="G13" t="n">
         <v>510</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>271</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1096278317152104</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5313725490196078</v>
       </c>
     </row>
     <row r="14">
@@ -789,9 +902,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>114</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -814,10 +934,19 @@
         <v>1674</v>
       </c>
       <c r="F15" t="n">
+        <v>152.1818181818182</v>
+      </c>
+      <c r="G15" t="n">
         <v>133</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>56</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.03345280764635603</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="16">
@@ -844,6 +973,11 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -869,6 +1003,11 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -889,10 +1028,19 @@
         <v>1477</v>
       </c>
       <c r="F18" t="n">
+        <v>369.25</v>
+      </c>
+      <c r="G18" t="n">
         <v>34</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>13</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.008801624915368992</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3823529411764706</v>
       </c>
     </row>
     <row r="19">
@@ -919,6 +1067,11 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -944,6 +1097,11 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -964,9 +1122,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>478</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -989,10 +1154,19 @@
         <v>1494</v>
       </c>
       <c r="F22" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="G22" t="n">
         <v>307</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>103</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.06894243641231593</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3355048859934853</v>
       </c>
     </row>
     <row r="23">
@@ -1014,10 +1188,19 @@
         <v>193</v>
       </c>
       <c r="F23" t="n">
+        <v>64.33333333333333</v>
+      </c>
+      <c r="G23" t="n">
         <v>122</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.01036269430051814</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="24">
@@ -1039,9 +1222,18 @@
         <v>404</v>
       </c>
       <c r="F24" t="n">
+        <v>44.88888888888889</v>
+      </c>
+      <c r="G24" t="n">
         <v>44</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1064,9 +1256,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>1956</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1089,10 +1288,19 @@
         <v>2540</v>
       </c>
       <c r="F26" t="n">
+        <v>254</v>
+      </c>
+      <c r="G26" t="n">
         <v>240</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>121</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.04763779527559055</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5041666666666667</v>
       </c>
     </row>
     <row r="27">
@@ -1114,10 +1322,19 @@
         <v>383</v>
       </c>
       <c r="F27" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="G27" t="n">
         <v>272</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>14</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.03655352480417755</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.05147058823529412</v>
       </c>
     </row>
     <row r="28">
@@ -1139,9 +1356,18 @@
         <v>114</v>
       </c>
       <c r="F28" t="n">
+        <v>114</v>
+      </c>
+      <c r="G28" t="n">
         <v>569</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1164,9 +1390,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>15</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1189,10 +1422,19 @@
         <v>1983</v>
       </c>
       <c r="F30" t="n">
+        <v>123.9375</v>
+      </c>
+      <c r="G30" t="n">
         <v>777</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>144</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.07261724659606657</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1853281853281853</v>
       </c>
     </row>
     <row r="31">
@@ -1214,10 +1456,19 @@
         <v>159</v>
       </c>
       <c r="F31" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="G31" t="n">
         <v>482</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0440251572327044</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01452282157676349</v>
       </c>
     </row>
     <row r="32">
@@ -1239,10 +1490,19 @@
         <v>424</v>
       </c>
       <c r="F32" t="n">
+        <v>141.3333333333333</v>
+      </c>
+      <c r="G32" t="n">
         <v>1325</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>96</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.2264150943396226</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.07245283018867925</v>
       </c>
     </row>
     <row r="33">
@@ -1264,10 +1524,19 @@
         <v>1259</v>
       </c>
       <c r="F33" t="n">
+        <v>89.92857142857143</v>
+      </c>
+      <c r="G33" t="n">
         <v>2199</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>202</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1604447974583002</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.09185993633469759</v>
       </c>
     </row>
     <row r="34">
@@ -1289,9 +1558,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>6</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1314,10 +1590,19 @@
         <v>789</v>
       </c>
       <c r="F35" t="n">
+        <v>60.69230769230769</v>
+      </c>
+      <c r="G35" t="n">
         <v>1063</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>185</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.2344740177439797</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.174035747883349</v>
       </c>
     </row>
     <row r="36">
@@ -1339,9 +1624,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>279</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1364,9 +1656,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>180</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1389,9 +1688,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>880</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1419,6 +1725,11 @@
       <c r="G39" t="n">
         <v>0</v>
       </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1439,10 +1750,19 @@
         <v>449</v>
       </c>
       <c r="F40" t="n">
+        <v>449</v>
+      </c>
+      <c r="G40" t="n">
         <v>797</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0022271714922049</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.001254705144291092</v>
       </c>
     </row>
     <row r="41">
@@ -1464,9 +1784,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>36</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,10 +1816,19 @@
         <v>1415</v>
       </c>
       <c r="F42" t="n">
+        <v>88.4375</v>
+      </c>
+      <c r="G42" t="n">
         <v>478</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.002120141342756184</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.006276150627615063</v>
       </c>
     </row>
     <row r="43">
@@ -1514,9 +1850,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>2643</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1539,10 +1882,19 @@
         <v>1690</v>
       </c>
       <c r="F44" t="n">
+        <v>211.25</v>
+      </c>
+      <c r="G44" t="n">
         <v>4266</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>938</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.5550295857988166</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.2198781059540553</v>
       </c>
     </row>
     <row r="45">
@@ -1564,10 +1916,19 @@
         <v>1400</v>
       </c>
       <c r="F45" t="n">
+        <v>155.5555555555555</v>
+      </c>
+      <c r="G45" t="n">
         <v>166</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.003571428571428571</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.03012048192771084</v>
       </c>
     </row>
     <row r="46">
@@ -1589,10 +1950,19 @@
         <v>1122</v>
       </c>
       <c r="F46" t="n">
+        <v>140.25</v>
+      </c>
+      <c r="G46" t="n">
         <v>131</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>28</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0249554367201426</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2137404580152672</v>
       </c>
     </row>
     <row r="47">
@@ -1614,10 +1984,19 @@
         <v>109</v>
       </c>
       <c r="F47" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="G47" t="n">
         <v>491</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>45</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.4128440366972477</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.09164969450101833</v>
       </c>
     </row>
     <row r="48">
@@ -1639,9 +2018,16 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>3553</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1664,9 +2050,16 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>5168</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1689,10 +2082,19 @@
         <v>3216</v>
       </c>
       <c r="F50" t="n">
+        <v>229.7142857142857</v>
+      </c>
+      <c r="G50" t="n">
         <v>5781</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>1360</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.4228855721393035</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2352534163639509</v>
       </c>
     </row>
     <row r="51">
@@ -1714,10 +2116,19 @@
         <v>2684</v>
       </c>
       <c r="F51" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="G51" t="n">
         <v>6142</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>1353</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.5040983606557377</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.2202865516118528</v>
       </c>
     </row>
     <row r="52">
@@ -1739,10 +2150,19 @@
         <v>724</v>
       </c>
       <c r="F52" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="G52" t="n">
         <v>7718</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>271</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.3743093922651934</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.03511272350349832</v>
       </c>
     </row>
     <row r="53">
@@ -1764,9 +2184,16 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>4583</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,9 +2216,16 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>4222</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1814,9 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
         <v>5288</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1839,10 +2280,19 @@
         <v>178</v>
       </c>
       <c r="F56" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="G56" t="n">
         <v>4057</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>87</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.4887640449438202</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.02144441705693862</v>
       </c>
     </row>
     <row r="57">
@@ -1864,10 +2314,19 @@
         <v>304</v>
       </c>
       <c r="F57" t="n">
+        <v>304</v>
+      </c>
+      <c r="G57" t="n">
         <v>4933</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>239</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.7861842105263158</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.04844921954186094</v>
       </c>
     </row>
     <row r="58">
@@ -1889,10 +2348,19 @@
         <v>410</v>
       </c>
       <c r="F58" t="n">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="G58" t="n">
         <v>5024</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>312</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.7609756097560976</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.06210191082802548</v>
       </c>
     </row>
     <row r="59">
@@ -1914,9 +2382,16 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>4590</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1939,9 +2414,18 @@
         <v>499</v>
       </c>
       <c r="F60" t="n">
+        <v>45.36363636363637</v>
+      </c>
+      <c r="G60" t="n">
         <v>101</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1964,9 +2448,16 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>15</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,6 +2485,11 @@
       <c r="G62" t="n">
         <v>0</v>
       </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2014,9 +2510,16 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
         <v>46</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2044,6 +2547,11 @@
       <c r="G64" t="n">
         <v>0</v>
       </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2069,6 +2577,11 @@
       <c r="G65" t="n">
         <v>0</v>
       </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2094,6 +2607,11 @@
       <c r="G66" t="n">
         <v>0</v>
       </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2119,6 +2637,11 @@
       <c r="G67" t="n">
         <v>0</v>
       </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2139,11 +2662,18 @@
         <v>1021</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>170.1666666666667</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2164,9 +2694,18 @@
         <v>293</v>
       </c>
       <c r="F69" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="G69" t="n">
         <v>31</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2194,6 +2733,11 @@
       <c r="G70" t="n">
         <v>0</v>
       </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2214,11 +2758,18 @@
         <v>170</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>56.66666666666666</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2239,10 +2790,19 @@
         <v>615</v>
       </c>
       <c r="F72" t="n">
+        <v>205</v>
+      </c>
+      <c r="G72" t="n">
         <v>3555</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>463</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.7528455284552845</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.130239099859353</v>
       </c>
     </row>
     <row r="73">
@@ -2264,10 +2824,19 @@
         <v>599</v>
       </c>
       <c r="F73" t="n">
+        <v>149.75</v>
+      </c>
+      <c r="G73" t="n">
         <v>3625</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>479</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.7996661101836394</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.1321379310344828</v>
       </c>
     </row>
     <row r="74">
@@ -2289,9 +2858,16 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
         <v>2</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2314,9 +2890,16 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>30</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2339,9 +2922,16 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
         <v>375</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2364,9 +2954,16 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
         <v>16</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2389,9 +2986,18 @@
         <v>2345</v>
       </c>
       <c r="F78" t="n">
+        <v>293.125</v>
+      </c>
+      <c r="G78" t="n">
         <v>44</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2419,6 +3025,11 @@
       <c r="G79" t="n">
         <v>0</v>
       </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2439,9 +3050,18 @@
         <v>318</v>
       </c>
       <c r="F80" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="G80" t="n">
         <v>20</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2464,10 +3084,19 @@
         <v>569</v>
       </c>
       <c r="F81" t="n">
+        <v>142.25</v>
+      </c>
+      <c r="G81" t="n">
         <v>5259</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>569</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.1081954744247956</v>
       </c>
     </row>
     <row r="82">
@@ -2489,9 +3118,16 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>12</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,10 +3150,19 @@
         <v>228</v>
       </c>
       <c r="F83" t="n">
+        <v>228</v>
+      </c>
+      <c r="G83" t="n">
         <v>84</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>30</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.131578947368421</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="84">
@@ -2544,6 +3189,11 @@
       <c r="G84" t="n">
         <v>0</v>
       </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2569,6 +3219,11 @@
       <c r="G85" t="n">
         <v>0</v>
       </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2589,10 +3244,19 @@
         <v>610</v>
       </c>
       <c r="F86" t="n">
+        <v>305</v>
+      </c>
+      <c r="G86" t="n">
         <v>3072</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>578</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.9475409836065574</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.1881510416666667</v>
       </c>
     </row>
     <row r="87">
@@ -2614,9 +3278,16 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>19</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2639,9 +3310,16 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>227</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2664,9 +3342,16 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
         <v>2548</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2689,9 +3374,18 @@
         <v>1649</v>
       </c>
       <c r="F90" t="n">
+        <v>1649</v>
+      </c>
+      <c r="G90" t="n">
         <v>434</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2714,9 +3408,18 @@
         <v>207</v>
       </c>
       <c r="F91" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="G91" t="n">
         <v>104</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2739,9 +3442,16 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>256</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2764,9 +3474,16 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>1088</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2789,10 +3506,19 @@
         <v>3764</v>
       </c>
       <c r="F94" t="n">
+        <v>179.2380952380952</v>
+      </c>
+      <c r="G94" t="n">
         <v>3196</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>983</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.2611583421891605</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.3075719649561953</v>
       </c>
     </row>
     <row r="95">
@@ -2814,9 +3540,16 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
         <v>5112</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2839,9 +3572,16 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
         <v>17</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,9 +3604,16 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
         <v>18</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2889,10 +3636,19 @@
         <v>685</v>
       </c>
       <c r="F98" t="n">
+        <v>62.27272727272727</v>
+      </c>
+      <c r="G98" t="n">
         <v>160</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>10</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.0145985401459854</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.0625</v>
       </c>
     </row>
     <row r="99">
@@ -2914,9 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
         <v>244</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2939,9 +3702,16 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
         <v>12182</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2964,9 +3734,16 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>2497</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2989,9 +3766,16 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>8719</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3014,9 +3798,18 @@
         <v>2572</v>
       </c>
       <c r="F103" t="n">
+        <v>367.4285714285714</v>
+      </c>
+      <c r="G103" t="n">
         <v>688</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3044,6 +3837,11 @@
       <c r="G104" t="n">
         <v>0</v>
       </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3064,11 +3862,18 @@
         <v>482</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>160.6666666666667</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3089,11 +3894,18 @@
         <v>964</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>107.1111111111111</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3114,11 +3926,18 @@
         <v>758</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3139,9 +3958,16 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
         <v>16</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3169,6 +3995,11 @@
       <c r="G109" t="n">
         <v>0</v>
       </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3189,9 +4020,18 @@
         <v>730</v>
       </c>
       <c r="F110" t="n">
+        <v>730</v>
+      </c>
+      <c r="G110" t="n">
         <v>68</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,6 +4059,11 @@
       <c r="G111" t="n">
         <v>0</v>
       </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3239,10 +4084,19 @@
         <v>2655</v>
       </c>
       <c r="F112" t="n">
+        <v>442.5</v>
+      </c>
+      <c r="G112" t="n">
         <v>6109</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>1837</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.6919020715630885</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.3007038795220167</v>
       </c>
     </row>
     <row r="113">
@@ -3264,9 +4118,16 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
         <v>6732</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3289,10 +4150,19 @@
         <v>1296</v>
       </c>
       <c r="F114" t="n">
+        <v>162</v>
+      </c>
+      <c r="G114" t="n">
         <v>3159</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>948</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.7314814814814815</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.3000949667616334</v>
       </c>
     </row>
     <row r="115">
@@ -3314,10 +4184,19 @@
         <v>666</v>
       </c>
       <c r="F115" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="G115" t="n">
         <v>11216</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>520</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.7807807807807807</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.0463623395149786</v>
       </c>
     </row>
     <row r="116">
@@ -3339,10 +4218,19 @@
         <v>1135</v>
       </c>
       <c r="F116" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G116" t="n">
         <v>2768</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>1100</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.9691629955947136</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.3973988439306358</v>
       </c>
     </row>
     <row r="117">
@@ -3364,9 +4252,16 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
         <v>6266</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3389,10 +4284,19 @@
         <v>1579</v>
       </c>
       <c r="F118" t="n">
+        <v>1579</v>
+      </c>
+      <c r="G118" t="n">
         <v>11351</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>835</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.5288157061431286</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.07356180072240331</v>
       </c>
     </row>
     <row r="119">
@@ -3414,11 +4318,18 @@
         <v>560</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3444,6 +4355,11 @@
       <c r="G120" t="n">
         <v>0</v>
       </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
